--- a/SourceFiles/Sample Data.xlsx
+++ b/SourceFiles/Sample Data.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DGrewal\Downloads\RECAP\RECAP\SourceFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DGrewal\Downloads\RECAP\RECAP\Python\SourceFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9473DEED-B661-4325-9708-DCD282563912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065C7BAC-7083-42C7-B8B9-BC9EA01FB96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rule1 Source1" sheetId="3" r:id="rId1"/>
-    <sheet name="Rule 1 Source2" sheetId="2" r:id="rId2"/>
+    <sheet name="Rule1 Source2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
